--- a/DataIn/Analisis_basico_crecimiento/Sentinel_1_data.xlsx
+++ b/DataIn/Analisis_basico_crecimiento/Sentinel_1_data.xlsx
@@ -15385,9 +15385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3032EF77-DAC5-4496-8712-B46E07214177}">
   <dimension ref="A1:U241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31083,5 +31083,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataIn/Analisis_basico_crecimiento/Sentinel_1_data.xlsx
+++ b/DataIn/Analisis_basico_crecimiento/Sentinel_1_data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6b088a06617d4fb/Ejercicio 7/Documents/Documents/Maestria/TFG/Modelado/Github/TF_Rice/DataIn/Analisis_basico_crecimiento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_AD4DB114E441178AC67DF44D1E54E324683EDF2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60853847-131D-4824-9D35-E7AA9CAC50B5}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="11_AD4DB114E441178AC67DF44D1E54E324683EDF2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B691792-89F0-4A5D-9DFB-3AE9143053B4}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$U$241</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -116,6 +116,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,10 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,10 +168,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16113,23 +16113,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3032EF77-DAC5-4496-8712-B46E07214177}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T214" sqref="T214:T219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C1" t="s">
@@ -16190,7 +16191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -16255,7 +16256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -16324,7 +16325,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>44746</v>
       </c>
       <c r="C4">
@@ -16385,7 +16386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -16450,7 +16451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -16515,7 +16516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -16580,7 +16581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -16649,7 +16650,7 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>44758</v>
       </c>
       <c r="C9">
@@ -16710,7 +16711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -16775,7 +16776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -16840,7 +16841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -16905,7 +16906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -16974,7 +16975,7 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>44770</v>
       </c>
       <c r="C14">
@@ -17035,7 +17036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -17100,7 +17101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -17165,7 +17166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -17230,7 +17231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -17299,7 +17300,7 @@
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>44782</v>
       </c>
       <c r="C19">
@@ -17360,7 +17361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -17425,7 +17426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -17490,7 +17491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -17555,7 +17556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -17624,7 +17625,7 @@
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>44794</v>
       </c>
       <c r="C24">
@@ -17685,7 +17686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -17750,7 +17751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -17815,7 +17816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -17880,7 +17881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -17949,7 +17950,7 @@
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>44806</v>
       </c>
       <c r="C29">
@@ -18010,7 +18011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -18075,7 +18076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -18140,7 +18141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -18205,7 +18206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -18274,7 +18275,7 @@
       <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>44818</v>
       </c>
       <c r="C34">
@@ -18335,7 +18336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5</v>
       </c>
@@ -18400,7 +18401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -18465,7 +18466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -18530,7 +18531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -18599,7 +18600,7 @@
       <c r="A39">
         <v>1</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="3">
         <v>44830</v>
       </c>
       <c r="C39">
@@ -18660,7 +18661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -18725,7 +18726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -18790,7 +18791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -18855,7 +18856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
@@ -18924,7 +18925,7 @@
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>44842</v>
       </c>
       <c r="C44">
@@ -18985,7 +18986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -19050,7 +19051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -19115,7 +19116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -19180,7 +19181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4</v>
       </c>
@@ -19249,7 +19250,7 @@
       <c r="A49">
         <v>1</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="3">
         <v>44854</v>
       </c>
       <c r="C49">
@@ -19310,7 +19311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5</v>
       </c>
@@ -19375,7 +19376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -19440,7 +19441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -19505,7 +19506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -19574,7 +19575,7 @@
       <c r="A54">
         <v>1</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="3">
         <v>44866</v>
       </c>
       <c r="C54">
@@ -19635,7 +19636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5</v>
       </c>
@@ -19700,7 +19701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2</v>
       </c>
@@ -19765,7 +19766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -19830,7 +19831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
@@ -19899,7 +19900,7 @@
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="3">
         <v>44878</v>
       </c>
       <c r="C59">
@@ -19960,7 +19961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5</v>
       </c>
@@ -20025,7 +20026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2</v>
       </c>
@@ -20090,7 +20091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -20155,7 +20156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -20224,7 +20225,7 @@
       <c r="A64">
         <v>1</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="3">
         <v>44890</v>
       </c>
       <c r="C64">
@@ -20285,7 +20286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>5</v>
       </c>
@@ -20350,7 +20351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2</v>
       </c>
@@ -20415,7 +20416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
@@ -20480,7 +20481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4</v>
       </c>
@@ -20549,7 +20550,7 @@
       <c r="A69">
         <v>1</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="3">
         <v>44902</v>
       </c>
       <c r="C69">
@@ -20610,7 +20611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>5</v>
       </c>
@@ -20675,7 +20676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2</v>
       </c>
@@ -20740,7 +20741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
@@ -20805,7 +20806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>4</v>
       </c>
@@ -20874,7 +20875,7 @@
       <c r="A74">
         <v>1</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="3">
         <v>44914</v>
       </c>
       <c r="C74">
@@ -20935,7 +20936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>5</v>
       </c>
@@ -21000,7 +21001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -21065,7 +21066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>3</v>
       </c>
@@ -21130,7 +21131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>4</v>
       </c>
@@ -21199,7 +21200,7 @@
       <c r="A79">
         <v>1</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="3">
         <v>44926</v>
       </c>
       <c r="C79">
@@ -21260,7 +21261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>5</v>
       </c>
@@ -21325,7 +21326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
@@ -21390,7 +21391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
@@ -21455,7 +21456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -21524,7 +21525,7 @@
       <c r="A84">
         <v>1</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="3">
         <v>44938</v>
       </c>
       <c r="C84">
@@ -21585,7 +21586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>5</v>
       </c>
@@ -21650,7 +21651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2</v>
       </c>
@@ -21715,7 +21716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>3</v>
       </c>
@@ -21780,7 +21781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4</v>
       </c>
@@ -21849,7 +21850,7 @@
       <c r="A89">
         <v>1</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="3">
         <v>44950</v>
       </c>
       <c r="C89">
@@ -21910,7 +21911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5</v>
       </c>
@@ -21975,7 +21976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2</v>
       </c>
@@ -22040,7 +22041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>3</v>
       </c>
@@ -22105,7 +22106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4</v>
       </c>
@@ -22174,7 +22175,7 @@
       <c r="A94">
         <v>1</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="3">
         <v>44962</v>
       </c>
       <c r="C94">
@@ -22235,7 +22236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>5</v>
       </c>
@@ -22300,7 +22301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2</v>
       </c>
@@ -22365,7 +22366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>3</v>
       </c>
@@ -22430,7 +22431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4</v>
       </c>
@@ -22499,7 +22500,7 @@
       <c r="A99">
         <v>1</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="3">
         <v>44974</v>
       </c>
       <c r="C99">
@@ -22560,7 +22561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>5</v>
       </c>
@@ -22625,7 +22626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2</v>
       </c>
@@ -22690,7 +22691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>3</v>
       </c>
@@ -22755,7 +22756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>4</v>
       </c>
@@ -22824,7 +22825,7 @@
       <c r="A104">
         <v>1</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="3">
         <v>44986</v>
       </c>
       <c r="C104">
@@ -22885,7 +22886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
@@ -22950,7 +22951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2</v>
       </c>
@@ -23015,7 +23016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>3</v>
       </c>
@@ -23080,7 +23081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>4</v>
       </c>
@@ -23149,7 +23150,7 @@
       <c r="A109">
         <v>1</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="3">
         <v>44998</v>
       </c>
       <c r="C109">
@@ -23210,7 +23211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
@@ -23275,7 +23276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2</v>
       </c>
@@ -23340,7 +23341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>3</v>
       </c>
@@ -23405,7 +23406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>4</v>
       </c>
@@ -23474,7 +23475,7 @@
       <c r="A114">
         <v>1</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="3">
         <v>45010</v>
       </c>
       <c r="C114">
@@ -23535,7 +23536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
@@ -23600,7 +23601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2</v>
       </c>
@@ -23665,7 +23666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>3</v>
       </c>
@@ -23730,7 +23731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>4</v>
       </c>
@@ -23799,7 +23800,7 @@
       <c r="A119">
         <v>1</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="3">
         <v>45022</v>
       </c>
       <c r="C119">
@@ -23860,7 +23861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5</v>
       </c>
@@ -23925,7 +23926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2</v>
       </c>
@@ -23990,7 +23991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>3</v>
       </c>
@@ -24055,7 +24056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>4</v>
       </c>
@@ -24124,7 +24125,7 @@
       <c r="A124">
         <v>1</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="3">
         <v>45034</v>
       </c>
       <c r="C124">
@@ -24185,7 +24186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5</v>
       </c>
@@ -24250,7 +24251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2</v>
       </c>
@@ -24315,7 +24316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>3</v>
       </c>
@@ -24380,7 +24381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>4</v>
       </c>
@@ -24449,7 +24450,7 @@
       <c r="A129">
         <v>1</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="3">
         <v>45046</v>
       </c>
       <c r="C129">
@@ -24510,7 +24511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>5</v>
       </c>
@@ -24575,7 +24576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2</v>
       </c>
@@ -24640,7 +24641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>3</v>
       </c>
@@ -24705,7 +24706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>4</v>
       </c>
@@ -24774,7 +24775,7 @@
       <c r="A134">
         <v>1</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="3">
         <v>45058</v>
       </c>
       <c r="C134">
@@ -24835,7 +24836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>5</v>
       </c>
@@ -24900,7 +24901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2</v>
       </c>
@@ -24965,7 +24966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>3</v>
       </c>
@@ -25030,7 +25031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>4</v>
       </c>
@@ -25099,7 +25100,7 @@
       <c r="A139">
         <v>1</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="3">
         <v>45070</v>
       </c>
       <c r="C139">
@@ -25160,7 +25161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>5</v>
       </c>
@@ -25225,7 +25226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2</v>
       </c>
@@ -25290,7 +25291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>3</v>
       </c>
@@ -25355,7 +25356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>4</v>
       </c>
@@ -25424,7 +25425,7 @@
       <c r="A144">
         <v>1</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="3">
         <v>45082</v>
       </c>
       <c r="C144">
@@ -25485,7 +25486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>5</v>
       </c>
@@ -25550,7 +25551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2</v>
       </c>
@@ -25615,7 +25616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>3</v>
       </c>
@@ -25680,7 +25681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>4</v>
       </c>
@@ -25749,7 +25750,7 @@
       <c r="A149">
         <v>1</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="3">
         <v>45094</v>
       </c>
       <c r="C149">
@@ -25810,7 +25811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>5</v>
       </c>
@@ -25875,7 +25876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2</v>
       </c>
@@ -25940,7 +25941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>3</v>
       </c>
@@ -26005,7 +26006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>4</v>
       </c>
@@ -26074,7 +26075,7 @@
       <c r="A154">
         <v>1</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="3">
         <v>45106</v>
       </c>
       <c r="C154">
@@ -26135,7 +26136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>5</v>
       </c>
@@ -26200,7 +26201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2</v>
       </c>
@@ -26265,7 +26266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>3</v>
       </c>
@@ -26330,7 +26331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>4</v>
       </c>
@@ -26399,7 +26400,7 @@
       <c r="A159">
         <v>1</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="3">
         <v>45118</v>
       </c>
       <c r="C159">
@@ -26460,7 +26461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>5</v>
       </c>
@@ -26525,7 +26526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2</v>
       </c>
@@ -26590,7 +26591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>3</v>
       </c>
@@ -26655,7 +26656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>4</v>
       </c>
@@ -26724,7 +26725,7 @@
       <c r="A164">
         <v>1</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="3">
         <v>45130</v>
       </c>
       <c r="C164">
@@ -26785,7 +26786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>5</v>
       </c>
@@ -26850,7 +26851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2</v>
       </c>
@@ -26915,7 +26916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>3</v>
       </c>
@@ -26980,7 +26981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>4</v>
       </c>
@@ -27049,7 +27050,7 @@
       <c r="A169">
         <v>1</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="3">
         <v>45142</v>
       </c>
       <c r="C169">
@@ -27110,7 +27111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>5</v>
       </c>
@@ -27175,7 +27176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2</v>
       </c>
@@ -27240,7 +27241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>3</v>
       </c>
@@ -27305,7 +27306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>4</v>
       </c>
@@ -27374,7 +27375,7 @@
       <c r="A174">
         <v>1</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="3">
         <v>45154</v>
       </c>
       <c r="C174">
@@ -27435,7 +27436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>5</v>
       </c>
@@ -27500,7 +27501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2</v>
       </c>
@@ -27565,7 +27566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>3</v>
       </c>
@@ -27630,7 +27631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>4</v>
       </c>
@@ -27699,7 +27700,7 @@
       <c r="A179">
         <v>1</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="3">
         <v>45166</v>
       </c>
       <c r="C179">
@@ -27760,7 +27761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>5</v>
       </c>
@@ -27825,7 +27826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2</v>
       </c>
@@ -27890,7 +27891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>3</v>
       </c>
@@ -27955,7 +27956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>4</v>
       </c>
@@ -28024,7 +28025,7 @@
       <c r="A184">
         <v>1</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="3">
         <v>45178</v>
       </c>
       <c r="C184">
@@ -28085,7 +28086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>5</v>
       </c>
@@ -28150,7 +28151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2</v>
       </c>
@@ -28215,7 +28216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>3</v>
       </c>
@@ -28280,7 +28281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>4</v>
       </c>
@@ -28349,7 +28350,7 @@
       <c r="A189">
         <v>1</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="3">
         <v>45190</v>
       </c>
       <c r="C189">
@@ -28410,7 +28411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>5</v>
       </c>
@@ -28475,7 +28476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2</v>
       </c>
@@ -28540,7 +28541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3</v>
       </c>
@@ -28605,7 +28606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>4</v>
       </c>
@@ -28674,7 +28675,7 @@
       <c r="A194">
         <v>1</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="3">
         <v>45202</v>
       </c>
       <c r="C194">
@@ -28735,7 +28736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>5</v>
       </c>
@@ -28800,7 +28801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2</v>
       </c>
@@ -28865,7 +28866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>3</v>
       </c>
@@ -28930,7 +28931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>4</v>
       </c>
@@ -28999,7 +29000,7 @@
       <c r="A199">
         <v>1</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="3">
         <v>45214</v>
       </c>
       <c r="C199">
@@ -29060,7 +29061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>5</v>
       </c>
@@ -29125,7 +29126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2</v>
       </c>
@@ -29190,7 +29191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>3</v>
       </c>
@@ -29255,7 +29256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>4</v>
       </c>
@@ -29324,7 +29325,7 @@
       <c r="A204">
         <v>1</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204" s="3">
         <v>45226</v>
       </c>
       <c r="C204">
@@ -29385,7 +29386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>5</v>
       </c>
@@ -29450,7 +29451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2</v>
       </c>
@@ -29515,7 +29516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>3</v>
       </c>
@@ -29580,7 +29581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>4</v>
       </c>
@@ -29649,7 +29650,7 @@
       <c r="A209">
         <v>1</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209" s="3">
         <v>45238</v>
       </c>
       <c r="C209">
@@ -29710,7 +29711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>5</v>
       </c>
@@ -29775,7 +29776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2</v>
       </c>
@@ -29840,7 +29841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>3</v>
       </c>
@@ -29905,7 +29906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>4</v>
       </c>
@@ -29974,7 +29975,7 @@
       <c r="A214">
         <v>1</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214" s="3">
         <v>45250</v>
       </c>
       <c r="C214">
@@ -30035,7 +30036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>5</v>
       </c>
@@ -30100,7 +30101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2</v>
       </c>
@@ -30165,7 +30166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>3</v>
       </c>
@@ -30230,7 +30231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>4</v>
       </c>
@@ -30299,7 +30300,7 @@
       <c r="A219">
         <v>1</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B219" s="3">
         <v>45262</v>
       </c>
       <c r="C219">
@@ -30360,7 +30361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>5</v>
       </c>
@@ -30425,7 +30426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2</v>
       </c>
@@ -30490,7 +30491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>3</v>
       </c>
@@ -30555,7 +30556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>4</v>
       </c>
@@ -30624,7 +30625,7 @@
       <c r="A224">
         <v>1</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B224" s="3">
         <v>45274</v>
       </c>
       <c r="C224">
@@ -30685,7 +30686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>5</v>
       </c>
@@ -30750,7 +30751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2</v>
       </c>
@@ -30815,7 +30816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>3</v>
       </c>
@@ -30880,7 +30881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>4</v>
       </c>
@@ -30949,7 +30950,7 @@
       <c r="A229">
         <v>1</v>
       </c>
-      <c r="B229" s="1">
+      <c r="B229" s="3">
         <v>45286</v>
       </c>
       <c r="C229">
@@ -31010,7 +31011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>5</v>
       </c>
@@ -31075,7 +31076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2</v>
       </c>
@@ -31140,7 +31141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>3</v>
       </c>
@@ -31205,7 +31206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>4</v>
       </c>
@@ -31274,7 +31275,7 @@
       <c r="A234">
         <v>1</v>
       </c>
-      <c r="B234" s="1">
+      <c r="B234" s="3">
         <v>45298</v>
       </c>
       <c r="C234">
@@ -31335,7 +31336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>5</v>
       </c>
@@ -31400,7 +31401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2</v>
       </c>
@@ -31465,7 +31466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>3</v>
       </c>
@@ -31530,7 +31531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>4</v>
       </c>
@@ -31599,7 +31600,7 @@
       <c r="A239">
         <v>1</v>
       </c>
-      <c r="B239" s="1">
+      <c r="B239" s="3">
         <v>45310</v>
       </c>
       <c r="C239">
@@ -31660,7 +31661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>5</v>
       </c>
@@ -31725,7 +31726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2</v>
       </c>
@@ -31791,6 +31792,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U241" xr:uid="{3032EF77-DAC5-4496-8712-B46E07214177}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
